--- a/PLANTILLAS APLICATIVO/C-STAR.xlsx
+++ b/PLANTILLAS APLICATIVO/C-STAR.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Documents\000 C-STAR\AES CHIVOR\CARACTERIZACION\PLANTILLAS APLICATIVO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD26D4B-F6F7-4800-BD42-7D0981CE78CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E17D9C-1362-4428-8EEB-AF9DB085CA02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{BF36FF0B-5F3E-43ED-9E70-79F3A03BC9D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{BF36FF0B-5F3E-43ED-9E70-79F3A03BC9D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Planes desarrollo" sheetId="1" r:id="rId1"/>
     <sheet name="PEMCTI" sheetId="2" r:id="rId2"/>
     <sheet name="PEDCTI" sheetId="4" r:id="rId3"/>
     <sheet name="PECTIA" sheetId="3" r:id="rId4"/>
+    <sheet name="PROYECTOS" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>AÑO</t>
   </si>
@@ -82,6 +83,27 @@
   </si>
   <si>
     <t xml:space="preserve">NOMBRE DEL PLAN </t>
+  </si>
+  <si>
+    <t>TITULO DEL PROYECTO</t>
+  </si>
+  <si>
+    <t>AÑO FORMULACION</t>
+  </si>
+  <si>
+    <t>ESTADO DEL PROYECTO</t>
+  </si>
+  <si>
+    <t>EJECUCION</t>
+  </si>
+  <si>
+    <t>TERMINADO</t>
+  </si>
+  <si>
+    <t>PROPUESTA</t>
+  </si>
+  <si>
+    <t>TEMATICA</t>
   </si>
 </sst>
 </file>
@@ -105,7 +127,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,8 +140,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -142,13 +170,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -468,7 +513,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +567,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CB1E5F-7C3F-4D44-8E21-C4B13E07E8F2}">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,4 +700,57 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D6A69A-6DE0-4E11-BB6C-A75457C0B274}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>